--- a/data/Equivalencias DQA1 DQB1 DRB1.xlsx
+++ b/data/Equivalencias DQA1 DQB1 DRB1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Dropbox\Proyectos Valdecilla\Missmatch eplets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Dropbox\Proyectos Valdecilla\Missmatch eplets\epletMM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AF9AF7-DEE4-44B7-9639-092499CE6C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402F5925-E49C-4328-A501-63DD413B95E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18120" yWindow="0" windowWidth="5016" windowHeight="12336" xr2:uid="{B7E10281-193F-41AD-A78D-9E943DE22E77}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="5592" windowHeight="12336" xr2:uid="{B7E10281-193F-41AD-A78D-9E943DE22E77}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>DQA1</t>
   </si>
@@ -123,9 +123,6 @@
     <t>*16:01</t>
   </si>
   <si>
-    <t>NO *04:01</t>
-  </si>
-  <si>
     <t>No *08</t>
   </si>
   <si>
@@ -139,16 +136,28 @@
   </si>
   <si>
     <t>*04:05</t>
+  </si>
+  <si>
+    <t>*08:01</t>
+  </si>
+  <si>
+    <t>NO *04:01 | *08:01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,12 +195,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -214,10 +227,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{660F13E2-9AB2-4E78-BED6-00FC1D2BC265}" name="Tabla3" displayName="Tabla3" ref="A1:C22" totalsRowShown="0">
-  <autoFilter ref="A1:C22" xr:uid="{660F13E2-9AB2-4E78-BED6-00FC1D2BC265}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
-    <sortCondition ref="A1:A22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{660F13E2-9AB2-4E78-BED6-00FC1D2BC265}" name="Tabla3" displayName="Tabla3" ref="A1:C23" totalsRowShown="0">
+  <autoFilter ref="A1:C23" xr:uid="{660F13E2-9AB2-4E78-BED6-00FC1D2BC265}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
+    <sortCondition ref="A1:A23"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E9E26BFA-EDEC-4193-B473-42B1A39ABE88}" name="DQB1"/>
@@ -525,13 +538,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0F86DC-28BE-4B49-9156-95625BB7C06F}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A5" sqref="A5:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -558,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
@@ -576,45 +592,45 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="7" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -622,30 +638,30 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -653,21 +669,21 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -675,97 +691,108 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C8">
-    <sortCondition ref="B1:B8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C9">
+    <sortCondition ref="B1:B9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
